--- a/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R-Habitat-trans_orig.xlsx
@@ -660,13 +660,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>13.16491844519873</v>
+        <v>13.16491844519872</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>13.13594664912079</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13.47253858500403</v>
+        <v>13.47253858500402</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>17.70827851256742</v>
@@ -684,7 +684,7 @@
         <v>13.02700322956268</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>11.48844642824925</v>
+        <v>11.48844642824924</v>
       </c>
       <c r="L4" s="5" t="n">
         <v>11.45386542897808</v>
@@ -693,7 +693,7 @@
         <v>12.375673562734</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>16.30131150063928</v>
+        <v>16.30131150063927</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.41333854904032</v>
+        <v>11.49926801423108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.23143701304924</v>
+        <v>11.49790310862207</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.79650350296766</v>
+        <v>11.86673098673585</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.8550847487239</v>
+        <v>15.96913098390609</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.831223194817857</v>
+        <v>4.822344997604032</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.499979926287288</v>
+        <v>5.477562066846247</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.385275286466568</v>
+        <v>7.070598003137204</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>10.81872276360187</v>
+        <v>11.05114959330319</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.992559774859968</v>
+        <v>10.12669326214662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10.0990406849381</v>
+        <v>10.1197375447316</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10.94286892885719</v>
+        <v>10.95080086491059</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.81372641155064</v>
+        <v>14.87029672676498</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.08016112307403</v>
+        <v>14.98948703831086</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.09501143802905</v>
+        <v>15.20585447755986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.35109802585239</v>
+        <v>15.48967688318032</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19.74500261106605</v>
+        <v>19.70136854138628</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.209740056958976</v>
+        <v>8.095433696211314</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.886392794185641</v>
+        <v>8.931033127260955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.67767362735302</v>
+        <v>15.84768486584752</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.17642686749259</v>
+        <v>15.50257935684174</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.21332499299891</v>
+        <v>13.13492457621762</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13.15341348801698</v>
+        <v>13.11557105621978</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14.72315525294504</v>
+        <v>14.35461740954247</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.79773454657287</v>
+        <v>17.99619512036602</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>10.67579785204838</v>
+        <v>10.67579785204839</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>11.7211441572546</v>
@@ -811,7 +811,7 @@
         <v>6.968583761503833</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.924864255286205</v>
+        <v>7.924864255286204</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>10.34337845413324</v>
@@ -820,7 +820,7 @@
         <v>11.96947016127914</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>9.573307420251105</v>
+        <v>9.573307420251107</v>
       </c>
       <c r="L7" s="5" t="n">
         <v>10.66970353406048</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.202655966360025</v>
+        <v>9.445354324974328</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>10.31125472286289</v>
+        <v>10.40040541857722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.93884503740686</v>
+        <v>10.93607834332265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14.31208046419496</v>
+        <v>14.23449886930632</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>5.510585135199515</v>
+        <v>5.54709256108517</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>6.342902096721191</v>
+        <v>6.625783166979542</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>8.684142772319452</v>
+        <v>8.697689353326785</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>10.11417403368388</v>
+        <v>10.03677716922952</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.549418578801118</v>
+        <v>8.652499240180262</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9.680035459857862</v>
+        <v>9.660465974425662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10.51806870549463</v>
+        <v>10.65373453235251</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.3123400531834</v>
+        <v>13.26866616899654</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.06914717208531</v>
+        <v>12.28655904653402</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.11431656930045</v>
+        <v>13.23517242486187</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.87891655271554</v>
+        <v>13.75868282861495</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.78916970425541</v>
+        <v>17.66909426219541</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.810342586137599</v>
+        <v>8.620725042380789</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.433193895835451</v>
+        <v>9.664504815948888</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.37804310818794</v>
+        <v>12.40406653458517</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>13.97906360272775</v>
+        <v>13.8191722508884</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>10.87360546689418</v>
+        <v>10.81158231937542</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11.71219824331011</v>
+        <v>12.04744157331551</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12.94042528242712</v>
+        <v>12.88809546553941</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>15.72851360002308</v>
+        <v>15.8502382697802</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>9.755810193560018</v>
+        <v>9.755810193560016</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>12.3090096062429</v>
@@ -941,7 +941,7 @@
         <v>12.57737287946815</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16.15045980719704</v>
+        <v>16.15045980719705</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>6.267679870739427</v>
@@ -950,7 +950,7 @@
         <v>6.17841093066638</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>8.478622770262826</v>
+        <v>8.478622770262827</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12.05937063223769</v>
@@ -959,13 +959,13 @@
         <v>8.946553002914214</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9.967120692807859</v>
+        <v>9.967120692807857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11.09169455115189</v>
+        <v>11.0916945511519</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>14.77471273249299</v>
+        <v>14.774712732493</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.413392606349181</v>
+        <v>8.435993239816447</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.57262274814633</v>
+        <v>10.70302606314672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10.77227261615572</v>
+        <v>10.68356146714389</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.99224133893955</v>
+        <v>14.01544544749184</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>4.470957139587806</v>
+        <v>4.58259489012941</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>5.177038017410077</v>
+        <v>5.014476259244455</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.047598209333829</v>
+        <v>6.834739670380886</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.03309674123279</v>
+        <v>10.01030071682924</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.875266486965531</v>
+        <v>7.912067297183203</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8.757592210989896</v>
+        <v>8.77438105447615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9.741618905603852</v>
+        <v>9.69021445692151</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>13.2616119996274</v>
+        <v>13.36797574656412</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.2863296233391</v>
+        <v>11.26328556987732</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.43153645303416</v>
+        <v>14.61707145647413</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.50007720521823</v>
+        <v>14.54032303804227</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.21175672288333</v>
+        <v>18.17553108653691</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.873116939476573</v>
+        <v>8.761403679548811</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.496079337602447</v>
+        <v>7.471950824795361</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.727479366922</v>
+        <v>10.58179406306061</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.59018918752409</v>
+        <v>14.38114488815003</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.19638134214689</v>
+        <v>10.50608118301932</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11.50159825410941</v>
+        <v>11.49265694060487</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12.5948788788533</v>
+        <v>12.6470052424108</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.3131416269625</v>
+        <v>16.64346786339042</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.979843304058443</v>
+        <v>8.968801647624986</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.895033895278738</v>
+        <v>9.845905751854492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11.01495888401468</v>
+        <v>11.1412446337659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14.03616188354765</v>
+        <v>14.18383994019877</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.624380932070078</v>
+        <v>5.753391128546264</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.517073159838303</v>
+        <v>7.583543254613125</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>6.255309120123608</v>
+        <v>6.267704548530994</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>11.78055402514435</v>
+        <v>11.92899723932137</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>8.11233554265505</v>
+        <v>7.983289260989607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9.488548910655586</v>
+        <v>9.475400234799499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9.405127999713166</v>
+        <v>9.426853110712367</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>13.6844173664507</v>
+        <v>13.75423026570488</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.69837125909483</v>
+        <v>11.50195944558339</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.8225135032132</v>
+        <v>12.94973227576616</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.08954180624822</v>
+        <v>14.06497804667274</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.31178874699152</v>
+        <v>17.33560085187757</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>8.964068962249648</v>
+        <v>8.819506857805983</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>11.16662753070596</v>
+        <v>10.97859446583923</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>8.604863844634128</v>
+        <v>8.619370466772473</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>15.27631190193708</v>
+        <v>15.39175500326311</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>10.08051295367381</v>
+        <v>10.06174539837777</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11.7184729562499</v>
+        <v>11.82397475750145</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11.48400253210476</v>
+        <v>11.42816171124706</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>16.04746720650487</v>
+        <v>15.85824474371664</v>
       </c>
     </row>
     <row r="16">
@@ -1222,7 +1222,7 @@
         <v>7.638726250146461</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>8.842250992934423</v>
+        <v>8.842250992934424</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12.71082630216208</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.09949118674505</v>
+        <v>10.09643436366185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.26647432602179</v>
+        <v>11.32158670540252</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.84479799312496</v>
+        <v>11.87337577119894</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15.3424547222866</v>
+        <v>15.35356097270669</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.904848807605857</v>
+        <v>5.92037208681711</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.886660759799391</v>
+        <v>6.950583872911235</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.977203281394078</v>
+        <v>7.891183112685335</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.77653837083501</v>
+        <v>11.7472465945469</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.062462827635505</v>
+        <v>9.024521765975388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10.04580945820862</v>
+        <v>10.11026179967735</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10.71961951181199</v>
+        <v>10.67937450473614</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>14.35687830725331</v>
+        <v>14.30875700828867</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.52909905033899</v>
+        <v>11.65311453990771</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.00876711850167</v>
+        <v>12.98998346950143</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.50040230485479</v>
+        <v>13.56927123371711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.15873239511694</v>
+        <v>17.19972058821724</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.598267089314185</v>
+        <v>7.698159208658576</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.463927824228147</v>
+        <v>8.480505270021313</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.01152819676427</v>
+        <v>9.923717487087945</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.67531025531293</v>
+        <v>13.67174075114231</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.30095016228985</v>
+        <v>10.29021657089358</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11.31015174429272</v>
+        <v>11.30885895067325</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12.02207497640434</v>
+        <v>11.96988579043929</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>15.77859402234775</v>
+        <v>15.66926758940386</v>
       </c>
     </row>
     <row r="19">
